--- a/大一下/物理实验Ⅰ/实验1/数据处理.xlsx
+++ b/大一下/物理实验Ⅰ/实验1/数据处理.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\#LJW\#PolarBear_RM\DoraemonLearningPocket\大一下\物理实验Ⅰ\实验1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\#刘济伟\####学习资料\#笔记\大学物理\物理实验\实验1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3F167A-24EE-4AF0-8E0A-519AF6FA75DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{913C3AE3-F0C2-44E3-9612-AC3F2EA3BF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="3765" windowWidth="19035" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -108,10 +108,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000"/>
-    <numFmt numFmtId="178" formatCode="0.00_ "/>
-    <numFmt numFmtId="179" formatCode="0.000_ "/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.000"/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -158,23 +158,23 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
+    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="百分比" xfId="1" builtinId="5"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="2" builtinId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -455,7 +455,7 @@
   <dimension ref="A1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
